--- a/planilhas/tabela_cliente.xlsx
+++ b/planilhas/tabela_cliente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1108E93B-AD75-4B19-8F96-6DA7546F5FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D813D93-3C8A-43FE-8F51-CECED1B476B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -66,9 +65,6 @@
     <t>RAMO DE ATIVIDADE</t>
   </si>
   <si>
-    <t>Classe</t>
-  </si>
-  <si>
     <t>TIPO DE LIGAÇÃO</t>
   </si>
   <si>
@@ -78,9 +74,6 @@
     <t>JOSYNELMA ROCHA SANTANA</t>
   </si>
   <si>
-    <t>884.123.853-49</t>
-  </si>
-  <si>
     <t>R. NOVA, 21, RES TUPINAMBA, TURU</t>
   </si>
   <si>
@@ -117,9 +110,6 @@
     <t>MARIA DE LOURDES RABELO FREITAS</t>
   </si>
   <si>
-    <t>253.711.183-49</t>
-  </si>
-  <si>
     <t>AV GLEYDSON LUCAS , S/N , PQ JAIR</t>
   </si>
   <si>
@@ -136,6 +126,9 @@
   </si>
   <si>
     <t>025</t>
+  </si>
+  <si>
+    <t>CLASSE</t>
   </si>
 </sst>
 </file>
@@ -190,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,6 +218,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -544,15 +543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="21" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
@@ -574,7 +573,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -599,33 +598,33 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="14">
+        <v>88412385349</v>
       </c>
       <c r="D2" s="7">
         <v>37369938</v>
@@ -634,49 +633,49 @@
         <v>3013136814</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7">
         <v>65066350</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>J2</f>
         <v>RESIDENCIAL</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1">
         <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25371118349</v>
       </c>
       <c r="D3" s="13">
         <v>577733620156</v>
@@ -685,38 +684,38 @@
         <v>3008249643</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="13">
         <v>65110000</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>J3</f>
         <v>RESIDENCIAL</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/tabela_cliente.xlsx
+++ b/planilhas/tabela_cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D813D93-3C8A-43FE-8F51-CECED1B476B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABB686-5197-4574-8CED-404261EAF538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>CLASSE</t>
+  </si>
+  <si>
+    <t>ENQUADRAMENTO</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,11 +568,12 @@
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="16" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -610,13 +617,16 @@
         <v>18</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -660,14 +670,17 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
@@ -711,10 +724,13 @@
       <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/planilhas/tabela_cliente.xlsx
+++ b/planilhas/tabela_cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABB686-5197-4574-8CED-404261EAF538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30E41E-6EEC-47DB-B276-300CE47DF4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -122,12 +122,6 @@
     <t>-44.184868</t>
   </si>
   <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
     <t>CLASSE</t>
   </si>
   <si>
@@ -135,6 +129,81 @@
   </si>
   <si>
     <t>INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCIO ANTONIO OLIVEIRA DE SOUSA </t>
+  </si>
+  <si>
+    <t>85676969334</t>
+  </si>
+  <si>
+    <t>0000190374942</t>
+  </si>
+  <si>
+    <t>R. 8, 55, QD 11, COHATRAC V</t>
+  </si>
+  <si>
+    <t>-2.54538</t>
+  </si>
+  <si>
+    <t>-44.20667</t>
+  </si>
+  <si>
+    <t>MARLUCIA DA COSTA</t>
+  </si>
+  <si>
+    <t>BALSAS</t>
+  </si>
+  <si>
+    <t>R. FAZENDA , 01 , CHACARA NOSSA SENHORA</t>
+  </si>
+  <si>
+    <t>AUTOCONSUMO REMOTO</t>
+  </si>
+  <si>
+    <t>-7.56911</t>
+  </si>
+  <si>
+    <t>-46.23278</t>
+  </si>
+  <si>
+    <t>673481</t>
+  </si>
+  <si>
+    <t>23758376300</t>
+  </si>
+  <si>
+    <t>PAINEL</t>
+  </si>
+  <si>
+    <t>INVERSOR</t>
+  </si>
+  <si>
+    <t>ASW7300-S</t>
+  </si>
+  <si>
+    <t>LEAPTON MONO 550</t>
+  </si>
+  <si>
+    <t>ANISIO BERNARDO ALMEIDA NETO</t>
+  </si>
+  <si>
+    <t>07490054320</t>
+  </si>
+  <si>
+    <t>0266272920039</t>
+  </si>
+  <si>
+    <t>ASW5000-S</t>
+  </si>
+  <si>
+    <t>-2.536256</t>
+  </si>
+  <si>
+    <t>-44.210288</t>
+  </si>
+  <si>
+    <t>R. Quatro, 22, Cohatrac IV</t>
   </si>
 </sst>
 </file>
@@ -144,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +232,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,37 +264,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -230,6 +291,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -547,96 +623,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="17" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>88412385349</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>37369938</v>
       </c>
       <c r="E2" s="1">
@@ -645,7 +729,7 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>65066350</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -671,41 +755,41 @@
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>25371118349</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>577733620156</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>3008249643</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <v>65110000</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -725,16 +809,192 @@
         <v>19</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2717760</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7">
+        <v>65110000</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>J4</f>
+        <v>RESIDENCIAL</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>63</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3011297888</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7">
+        <v>65800000</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>J5</f>
+        <v>RESIDENCIAL</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="6">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3016955360</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7">
+        <v>65054630</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>J6</f>
+        <v>RESIDENCIAL</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6">
+        <v>63</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilhas/tabela_cliente.xlsx
+++ b/planilhas/tabela_cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30E41E-6EEC-47DB-B276-300CE47DF4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D42122-7D6A-469C-8CC7-2F05A67A5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>ASW7300-S</t>
   </si>
   <si>
-    <t>LEAPTON MONO 550</t>
-  </si>
-  <si>
     <t>ANISIO BERNARDO ALMEIDA NETO</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>R. Quatro, 22, Cohatrac IV</t>
+  </si>
+  <si>
+    <t>Leapton Mono 550</t>
   </si>
 </sst>
 </file>
@@ -213,16 +213,8 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,15 +235,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,57 +257,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Ênfase3" xfId="2" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -625,165 +634,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="8" width="25" style="6" customWidth="1"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="6" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="6" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="6" customWidth="1"/>
-    <col min="16" max="17" width="15.42578125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>88412385349</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <v>37369938</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3013136814</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4">
         <v>65066350</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="K2" s="2" t="str">
         <f>J2</f>
         <v>RESIDENCIAL</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>25371118349</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>577733620156</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>3008249643</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>65110000</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -792,43 +801,43 @@
       <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="2" t="str">
         <f>J3</f>
         <v>RESIDENCIAL</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
@@ -837,7 +846,7 @@
       <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>65110000</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -846,43 +855,43 @@
       <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="str">
+      <c r="K4" s="2" t="str">
         <f>J4</f>
         <v>RESIDENCIAL</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="6">
         <v>63</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="6">
@@ -891,7 +900,7 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>65800000</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -900,58 +909,58 @@
       <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="2" t="str">
         <f>J5</f>
         <v>RESIDENCIAL</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="6">
         <v>63</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>69</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="6">
         <v>3016955360</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="7">
+        <v>55</v>
+      </c>
+      <c r="G6" s="9">
         <v>65054630</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -960,40 +969,40 @@
       <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <f>J6</f>
         <v>RESIDENCIAL</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="6">
         <v>63</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
-        <v>53</v>
+      <c r="R6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
